--- a/Tests/WebVella.DocumentTemplates.Tests/Files/TemplateExcelFunction1.xlsx
+++ b/Tests/WebVella.DocumentTemplates.Tests/Files/TemplateExcelFunction1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\source\WebVella.Tefter\tests\WebVella.Tefter.Tests\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\source\WebVella.DocumentTemplates\Tests\WebVella.DocumentTemplates.Tests\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEAD5F1B-FD65-49E7-AD7D-744E8923EA3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48CBE5F-A729-41B7-9EB0-53B8C2EE66D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10632" yWindow="6264" windowWidth="44772" windowHeight="18948" xr2:uid="{249ED8D8-E4C7-4A41-9BC3-D6950499A5E0}"/>
+    <workbookView xWindow="57480" yWindow="12375" windowWidth="29040" windowHeight="15720" xr2:uid="{249ED8D8-E4C7-4A41-9BC3-D6950499A5E0}"/>
   </bookViews>
   <sheets>
     <sheet name="{{name}}" sheetId="1" r:id="rId1"/>
@@ -30,10 +30,10 @@
     <t>position</t>
   </si>
   <si>
-    <t>{{postion}}</t>
+    <t>{{==SUM(A2)}}</t>
   </si>
   <si>
-    <t>{{==SUM(A2)}}</t>
+    <t>{{position}}</t>
   </si>
 </sst>
 </file>
@@ -55,7 +55,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -65,6 +65,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -96,10 +102,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,7 +424,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -432,12 +439,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="3" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
